--- a/uvxsect/JCH4toCH3pH.xlsx
+++ b/uvxsect/JCH4toCH3pH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\uvxsect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD12A7-6F4C-4A76-A650-75C17EA9F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10AFA9-66DA-459C-8432-09CFC7009EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t># Wavelength (nm)    Crosssection (cm^2)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,19 +341,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A2:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>

--- a/uvxsect/JCH4toCH3pH.xlsx
+++ b/uvxsect/JCH4toCH3pH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\uvxsect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10AFA9-66DA-459C-8432-09CFC7009EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB6457-9CC8-4022-B6F0-91CC61455B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t># Wavelength (nm)    Crosssection (cm^2)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,14 +345,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>
